--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.32689766666667</v>
+        <v>3.627806666666667</v>
       </c>
       <c r="H2">
-        <v>30.980693</v>
+        <v>10.88342</v>
       </c>
       <c r="I2">
-        <v>0.2044815006034941</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="J2">
-        <v>0.204481500603494</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.309350333333333</v>
+        <v>8.033114333333334</v>
       </c>
       <c r="N2">
-        <v>24.928051</v>
+        <v>24.099343</v>
       </c>
       <c r="O2">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="P2">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="Q2">
-        <v>85.80981056881588</v>
+        <v>29.14258573256222</v>
       </c>
       <c r="R2">
-        <v>772.2882951193429</v>
+        <v>262.28327159306</v>
       </c>
       <c r="S2">
-        <v>0.03138859482930642</v>
+        <v>0.01104310520561872</v>
       </c>
       <c r="T2">
-        <v>0.03138859482930642</v>
+        <v>0.01104310520561872</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.32689766666667</v>
+        <v>3.627806666666667</v>
       </c>
       <c r="H3">
-        <v>30.980693</v>
+        <v>10.88342</v>
       </c>
       <c r="I3">
-        <v>0.2044815006034941</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="J3">
-        <v>0.204481500603494</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>111.460173</v>
       </c>
       <c r="O3">
-        <v>0.6863556906301786</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="P3">
-        <v>0.6863556906301785</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="Q3">
-        <v>383.6792668266543</v>
+        <v>134.7853195590733</v>
       </c>
       <c r="R3">
-        <v>3453.113401439889</v>
+        <v>1213.06787603166</v>
       </c>
       <c r="S3">
-        <v>0.1403470415678065</v>
+        <v>0.05107468766577838</v>
       </c>
       <c r="T3">
-        <v>0.1403470415678064</v>
+        <v>0.05107468766577838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.32689766666667</v>
+        <v>3.627806666666667</v>
       </c>
       <c r="H4">
-        <v>30.980693</v>
+        <v>10.88342</v>
       </c>
       <c r="I4">
-        <v>0.2044815006034941</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="J4">
-        <v>0.204481500603494</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.668653666666668</v>
+        <v>13.27489133333333</v>
       </c>
       <c r="N4">
-        <v>26.005961</v>
+        <v>39.824674</v>
       </c>
       <c r="O4">
-        <v>0.1601409619439268</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="P4">
-        <v>0.1601409619439267</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="Q4">
-        <v>89.52029932344145</v>
+        <v>48.15873927834223</v>
       </c>
       <c r="R4">
-        <v>805.6826939109731</v>
+        <v>433.42865350508</v>
       </c>
       <c r="S4">
-        <v>0.03274586420638118</v>
+        <v>0.01824896491001719</v>
       </c>
       <c r="T4">
-        <v>0.03274586420638118</v>
+        <v>0.01824896491001719</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>88.110958</v>
       </c>
       <c r="I5">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="J5">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.309350333333333</v>
+        <v>8.033114333333334</v>
       </c>
       <c r="N5">
-        <v>24.928051</v>
+        <v>24.099343</v>
       </c>
       <c r="O5">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="P5">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="Q5">
-        <v>244.0482727425398</v>
+        <v>235.9351332111771</v>
       </c>
       <c r="R5">
-        <v>2196.434454682858</v>
+        <v>2123.416198900594</v>
       </c>
       <c r="S5">
-        <v>0.08927105538549558</v>
+        <v>0.08940375166646625</v>
       </c>
       <c r="T5">
-        <v>0.08927105538549558</v>
+        <v>0.08940375166646626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>88.110958</v>
       </c>
       <c r="I6">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="J6">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>111.460173</v>
       </c>
       <c r="O6">
-        <v>0.6863556906301786</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="P6">
-        <v>0.6863556906301785</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="Q6">
         <v>1091.206957986192</v>
@@ -818,10 +818,10 @@
         <v>9820.862621875733</v>
       </c>
       <c r="S6">
-        <v>0.3991554444894195</v>
+        <v>0.4134949914440972</v>
       </c>
       <c r="T6">
-        <v>0.3991554444894195</v>
+        <v>0.4134949914440972</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>88.110958</v>
       </c>
       <c r="I7">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="J7">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.668653666666668</v>
+        <v>13.27489133333333</v>
       </c>
       <c r="N7">
-        <v>26.005961</v>
+        <v>39.824674</v>
       </c>
       <c r="O7">
-        <v>0.1601409619439268</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="P7">
-        <v>0.1601409619439267</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="Q7">
-        <v>254.6011263800709</v>
+        <v>389.8877975752991</v>
       </c>
       <c r="R7">
-        <v>2291.410137420638</v>
+        <v>3508.990178177692</v>
       </c>
       <c r="S7">
-        <v>0.09313121129221207</v>
+        <v>0.1477415904862624</v>
       </c>
       <c r="T7">
-        <v>0.09313121129221205</v>
+        <v>0.1477415904862624</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.80562866666667</v>
+        <v>12.14251133333333</v>
       </c>
       <c r="H8">
-        <v>32.416886</v>
+        <v>36.427534</v>
       </c>
       <c r="I8">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="J8">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.309350333333333</v>
+        <v>8.033114333333334</v>
       </c>
       <c r="N8">
-        <v>24.928051</v>
+        <v>24.099343</v>
       </c>
       <c r="O8">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="P8">
-        <v>0.1535033474258946</v>
+        <v>0.1374088679258946</v>
       </c>
       <c r="Q8">
-        <v>89.78775416324287</v>
+        <v>97.54218183446245</v>
       </c>
       <c r="R8">
-        <v>808.0897874691859</v>
+        <v>877.8796365101621</v>
       </c>
       <c r="S8">
-        <v>0.03284369721109259</v>
+        <v>0.03696201105380963</v>
       </c>
       <c r="T8">
-        <v>0.03284369721109259</v>
+        <v>0.03696201105380963</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.80562866666667</v>
+        <v>12.14251133333333</v>
       </c>
       <c r="H9">
-        <v>32.416886</v>
+        <v>36.427534</v>
       </c>
       <c r="I9">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="J9">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>111.460173</v>
       </c>
       <c r="O9">
-        <v>0.6863556906301786</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="P9">
-        <v>0.6863556906301785</v>
+        <v>0.6355200716780686</v>
       </c>
       <c r="Q9">
-        <v>401.4657468534753</v>
+        <v>451.1354712892647</v>
       </c>
       <c r="R9">
-        <v>3613.191721681278</v>
+        <v>4060.219241603382</v>
       </c>
       <c r="S9">
-        <v>0.1468532045729527</v>
+        <v>0.170950392568193</v>
       </c>
       <c r="T9">
-        <v>0.1468532045729526</v>
+        <v>0.170950392568193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.80562866666667</v>
+        <v>12.14251133333333</v>
       </c>
       <c r="H10">
-        <v>32.416886</v>
+        <v>36.427534</v>
       </c>
       <c r="I10">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="J10">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.668653666666668</v>
+        <v>13.27489133333333</v>
       </c>
       <c r="N10">
-        <v>26.005961</v>
+        <v>39.824674</v>
       </c>
       <c r="O10">
-        <v>0.1601409619439268</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="P10">
-        <v>0.1601409619439267</v>
+        <v>0.2270710603960369</v>
       </c>
       <c r="Q10">
-        <v>93.67025256193844</v>
+        <v>161.1905184637685</v>
       </c>
       <c r="R10">
-        <v>843.032273057446</v>
+        <v>1450.714666173916</v>
       </c>
       <c r="S10">
-        <v>0.03426388644533353</v>
+        <v>0.06108050499975725</v>
       </c>
       <c r="T10">
-        <v>0.03426388644533351</v>
+        <v>0.06108050499975725</v>
       </c>
     </row>
   </sheetData>
